--- a/SourceCode/2024/June2024/Jeevan/2043_API_Jeevan/Data.xlsx
+++ b/SourceCode/2024/June2024/Jeevan/2043_API_Jeevan/Data.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:pm="smNativeData" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <x:fileSharing userName="jeeva"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500" firstSheet="0" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <x:sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr/>
+  <x:extLst>
+    <x:ext uri="smNativeData">
+      <pm:revision xmlns:pm="smNativeData" day="1718892646" val="1215" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1718892646" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1718892646" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1718892646"/>
+    </x:ext>
+  </x:extLst>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>FirstName</x:t>
   </x:si>
@@ -25,29 +36,182 @@
     <x:t>FullName</x:t>
   </x:si>
   <x:si>
-    <x:t>Victor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gerard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VictorGerard</x:t>
+    <x:t>Gorana</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tasić</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GoranaTasić</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PhoneNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Katalina</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Paunović</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MrsKatalinaPaunović</x:t>
+  </x:si>
+  <x:si>
+    <x:t>026-3746-511</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyubomila</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parashchuk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MrsLyubomilaParashchuk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(097) C69-0318</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sofia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Johnson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MrsSofiaJohnson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(485)-857-5131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Caitlin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Smith</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MsCaitlinSmith</x:t>
+  </x:si>
+  <x:si>
+    <x:t>021-097-8290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ricardo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rubio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MrRicardoRubio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>951-935-995</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shraddha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bhat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MsShraddhaBhat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9786928350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minttu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakso</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MissMinttuLakso</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-389-223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miroslav</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Werleman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MrMiroslavWerleman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(0852) 463621</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Luis Miguel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rodríguez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MrLuis MiguelRodríguez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(675) 263 3077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deniz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Akyüz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MrDenizAkyüz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(143)-372-8496</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
+<x:styleSheet xmlns:pm="smNativeData" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="8">
+    <x:numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
+    <x:numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
+    <x:numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
+    <x:numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
+    <x:numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
+    <x:numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
+    <x:numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
+    <x:numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
     <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
+      <x:color rgb="FF000000"/>
+      <x:sz val="11"/>
+      <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718892646" ulstyle="none" kern="1" ssSize="100">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default"/>
+            <pm:ea face="SimSun" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </x:font>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:family val="2"/>
+      <x:color rgb="FF000000"/>
+      <x:sz val="10"/>
+      <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1718892646" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default"/>
+            <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -59,7 +223,7 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
+    <x:border>
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
@@ -72,25 +236,31 @@
       <x:bottom style="none">
         <x:color rgb="FF000000"/>
       </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+      <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1718892646"/>
+        </ext>
+      </extLst>
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1"/>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </x:cellXfs>
   <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <x:cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </x:cellStyles>
+  <x:tableStyles count="0"/>
+  <x:extLst>
+    <x:ext uri="smNativeData">
+      <pm:charStyles xmlns:pm="smNativeData" id="1718892646" count="1">
+        <pm:charStyle name="Normal" fontId="0" Id="1"/>
+      </pm:charStyles>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -105,10 +275,10 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="EEECE1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="1F497D"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -140,69 +310,11 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:ea typeface="SimSun"/>
+        <a:cs typeface="Times New Roman"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -372,21 +484,52 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr>
+        <a:prstTxWarp prst="textNoShape">
+          <a:avLst/>
+        </a:prstTxWarp>
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:pm="smNativeData" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C1"/>
+  <x:dimension ref="A1:C2"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="A1" sqref="A1"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15.4"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
@@ -411,10 +554,238 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0">
+    <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1718892646" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </x:printOptions>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="asDisplayed" errors="displayed"/>
+  <x:headerFooter>
+    <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1718892646" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1718892646" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718892646" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718892646" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </x:headerFooter>
   <x:tableParts count="0"/>
+  <x:extLst>
+    <x:ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718892646" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </x:ext>
+  </x:extLst>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:pm="smNativeData" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D11"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A1" sqref="A1"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15.4"/>
+  <x:cols>
+    <x:col min="1" max="1" width="12.553571" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.571429" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.160714" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="16.4375" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0">
+    <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1718892646" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </x:printOptions>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="asDisplayed" errors="displayed"/>
+  <x:headerFooter>
+    <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1718892646" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1718892646" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718892646" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1718892646" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </x:headerFooter>
+  <x:tableParts count="0"/>
+  <x:extLst>
+    <x:ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1718892646" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </x:ext>
+  </x:extLst>
 </x:worksheet>
 </file>